--- a/Topics/data/woerter_und_hashtags_v3.xlsx
+++ b/Topics/data/woerter_und_hashtags_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\twitterpolitics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ECF16EA-7E2C-4033-BBAA-1E0BCC9568A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45F9292-7B2E-4F0B-B0F4-A89D798CFA49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="146" yWindow="154" windowWidth="13654" windowHeight="7706" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="502">
   <si>
     <t>hashtag</t>
   </si>
@@ -1287,9 +1287,6 @@
     <t>jude</t>
   </si>
   <si>
-    <t>relgion</t>
-  </si>
-  <si>
     <t>jüdin</t>
   </si>
   <si>
@@ -1534,6 +1531,9 @@
   </si>
   <si>
     <t>ökosystem</t>
+  </si>
+  <si>
+    <t>einwander</t>
   </si>
 </sst>
 </file>
@@ -1910,18 +1910,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C511"/>
+  <dimension ref="A1:C512"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="194" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A505" zoomScale="149" zoomScaleNormal="194" workbookViewId="0">
+      <selection activeCell="B512" sqref="B512"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.3828125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2948,15 +2948,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>283</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>195</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>196</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>197</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>198</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>199</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>200</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>201</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>202</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>203</v>
       </c>
@@ -3444,15 +3444,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B191" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>204</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>205</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>206</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>207</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>208</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>209</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>210</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>211</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>212</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>213</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>214</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>215</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>216</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>217</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>218</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>219</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>220</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>221</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>222</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>223</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>224</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>225</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>226</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>227</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>228</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>229</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>230</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>231</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>232</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>233</v>
       </c>
@@ -3692,39 +3692,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B222" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B223" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B224" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B225" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>234</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>235</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>236</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>237</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>238</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>239</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>240</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>241</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>242</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>243</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>316</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>316</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>244</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>245</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>246</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>248</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>249</v>
       </c>
@@ -3868,15 +3868,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>249</v>
       </c>
       <c r="B244" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>250</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>251</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>252</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>253</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>254</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>255</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>256</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>257</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>259</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>260</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>261</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>262</v>
       </c>
@@ -3972,15 +3972,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>263</v>
       </c>
       <c r="B257" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>264</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>265</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>266</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>267</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>272</v>
       </c>
@@ -4020,15 +4020,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>268</v>
       </c>
       <c r="B263" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>273</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>273</v>
       </c>
@@ -4044,15 +4044,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>270</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>271</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>274</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>275</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>276</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>277</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>278</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>279</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>280</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>281</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>282</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>284</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>285</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>286</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>288</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>289</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>290</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>291</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>292</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>258</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>294</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>295</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>296</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>297</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>298</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>299</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>299</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>300</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>301</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>302</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>302</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>303</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>303</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>304</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>305</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>306</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>306</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>307</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>307</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>309</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>311</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>312</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>313</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>314</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>314</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>315</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>317</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>318</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>310</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>319</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>319</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>320</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>321</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>322</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>323</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>323</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>324</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>325</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>326</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>326</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>328</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>329</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>329</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>330</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>331</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>332</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>333</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>334</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>335</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>334</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>335</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>336</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>336</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>337</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>338</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>339</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>340</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>341</v>
       </c>
@@ -4676,15 +4676,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B345" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>342</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>343</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>344</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>345</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>346</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>347</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>348</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>349</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>350</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>351</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>352</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>353</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>354</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>355</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>356</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>357</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>358</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>359</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>360</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>361</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>362</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>363</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>364</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>365</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>366</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>367</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>368</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>369</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>369</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>370</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>371</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>372</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>373</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>374</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>375</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>376</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>377</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>378</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>379</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>380</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>381</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>381</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>382</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>383</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>384</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>385</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>386</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>387</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>388</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>389</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>390</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>391</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>392</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>393</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>394</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>395</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>396</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>397</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>398</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>399</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>400</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>401</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>402</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>403</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>404</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>405</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>406</v>
       </c>
@@ -5220,15 +5220,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>407</v>
       </c>
       <c r="B413" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.4">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>408</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>409</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>410</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>411</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>412</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>413</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>414</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>415</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>416</v>
       </c>
@@ -5300,287 +5300,287 @@
         <v>417</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>418</v>
       </c>
       <c r="B423" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A424" t="s">
-        <v>420</v>
       </c>
       <c r="B424" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B425" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B426" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B427" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B428" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B429" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B430" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B431" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B432" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B433" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B434" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B435" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B436" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B437" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B438" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B439" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B440" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B441" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B442" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B443" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B444" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B445" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B446" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B447" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
+        <v>445</v>
+      </c>
+      <c r="B448" t="s">
         <v>446</v>
       </c>
-      <c r="B448" t="s">
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A449" t="s">
+      <c r="B449" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
         <v>448</v>
       </c>
-      <c r="B449" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A450" t="s">
+      <c r="B450" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
         <v>449</v>
       </c>
-      <c r="B450" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A451" t="s">
+      <c r="B451" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
         <v>450</v>
-      </c>
-      <c r="B451" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A452" t="s">
-        <v>451</v>
       </c>
       <c r="B452" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B453" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B454" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B455" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B456" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B457" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>417</v>
       </c>
@@ -5588,375 +5588,375 @@
         <v>417</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B459" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B460" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B461" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B462" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B463" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B464" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B465" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B466" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B467" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B468" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B469" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B470" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B471" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B472" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B473" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B474" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B475" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B476" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B477" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B478" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B479" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B480" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B481" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B482" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B483" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B484" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B485" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B486" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B487" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B488" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B489" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B490" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B491" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B492" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>485</v>
+      </c>
+      <c r="B493" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>486</v>
+      </c>
+      <c r="B494" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A493" t="s">
+      <c r="B495" t="s">
         <v>486</v>
       </c>
-      <c r="B493" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A494" t="s">
-        <v>487</v>
-      </c>
-      <c r="B494" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A495" t="s">
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
         <v>488</v>
       </c>
-      <c r="B495" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A496" t="s">
+      <c r="B496" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
         <v>489</v>
-      </c>
-      <c r="B496" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A497" t="s">
-        <v>490</v>
       </c>
       <c r="B497" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B498" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B499" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
+        <v>492</v>
+      </c>
+      <c r="B500" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
         <v>493</v>
-      </c>
-      <c r="B500" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A501" t="s">
-        <v>494</v>
       </c>
       <c r="B501" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B502" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B503" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B504" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>367</v>
       </c>
@@ -5964,52 +5964,60 @@
         <v>133</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
+        <v>495</v>
+      </c>
+      <c r="B506" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
         <v>496</v>
       </c>
-      <c r="B506" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A507" t="s">
+      <c r="B507" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
         <v>497</v>
-      </c>
-      <c r="B507" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A508" t="s">
-        <v>498</v>
       </c>
       <c r="B508" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B509" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B510" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B511" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>501</v>
+      </c>
+      <c r="B512" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
